--- a/Electronics-pcb-rework-partslist.xlsx
+++ b/Electronics-pcb-rework-partslist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open-source-rover\Electrical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open-source-rover\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -892,7 +892,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -962,7 +962,7 @@
         <v>1.74</v>
       </c>
       <c r="I2" s="3">
-        <f>H2*B2</f>
+        <f t="shared" ref="I2:I32" si="0">H2*B2</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -995,7 +995,7 @@
         <v>1.24</v>
       </c>
       <c r="I3" s="3">
-        <f>H3*B3</f>
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -1028,7 +1028,7 @@
         <v>0.75</v>
       </c>
       <c r="I4" s="3">
-        <f>H4*B4</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -1061,7 +1061,7 @@
         <v>0.51</v>
       </c>
       <c r="I5" s="3">
-        <f>H5*B5</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -1094,7 +1094,7 @@
         <v>0.49</v>
       </c>
       <c r="I6" s="3">
-        <f>H6*B6</f>
+        <f t="shared" si="0"/>
         <v>3.4299999999999997</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -1127,7 +1127,7 @@
         <v>0.73</v>
       </c>
       <c r="I7" s="3">
-        <f>H7*B7</f>
+        <f t="shared" si="0"/>
         <v>1.46</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -1160,7 +1160,7 @@
         <v>1.26</v>
       </c>
       <c r="I8" s="3">
-        <f>H8*B8</f>
+        <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -1193,7 +1193,7 @@
         <v>0.182</v>
       </c>
       <c r="I9" s="3">
-        <f>H9*B9</f>
+        <f t="shared" si="0"/>
         <v>2.9119999999999999</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1226,7 +1226,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I10" s="3">
-        <f>H10*B10</f>
+        <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1259,7 +1259,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I11" s="3">
-        <f>H11*B11</f>
+        <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1292,7 +1292,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I12" s="3">
-        <f>H12*B12</f>
+        <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1325,7 +1325,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="I13" s="3">
-        <f>H13*B13</f>
+        <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
       <c r="J13" s="10" t="s">
@@ -1358,7 +1358,7 @@
         <v>2.95</v>
       </c>
       <c r="I14" s="3">
-        <f>H14*B14</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1391,7 +1391,7 @@
         <v>5.2</v>
       </c>
       <c r="I15" s="3">
-        <f>H15*B15</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -1424,7 +1424,7 @@
         <v>1.4</v>
       </c>
       <c r="I16" s="3">
-        <f>H16*B16</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J16" s="10" t="s">
@@ -1457,10 +1457,10 @@
         <v>0.45</v>
       </c>
       <c r="I17" s="3">
-        <f>H17*B17</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="I18" s="3">
-        <f>H18*B18</f>
+        <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
       <c r="J18" s="10" t="s">
@@ -1523,7 +1523,7 @@
         <v>1.55</v>
       </c>
       <c r="I19" s="3">
-        <f>H19*B19</f>
+        <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -1556,7 +1556,7 @@
         <v>0.38</v>
       </c>
       <c r="I20" s="3">
-        <f>H20*B20</f>
+        <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -1589,7 +1589,7 @@
         <v>0.5</v>
       </c>
       <c r="I21" s="3">
-        <f>H21*B21</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -1620,7 +1620,7 @@
         <v>7.99</v>
       </c>
       <c r="I22" s="3">
-        <f>H22*B22</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -1653,7 +1653,7 @@
         <v>0.45</v>
       </c>
       <c r="I23" s="3">
-        <f>H23*B23</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -1686,7 +1686,7 @@
         <v>0.27</v>
       </c>
       <c r="I24" s="3">
-        <f>H24*B24</f>
+        <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -1719,7 +1719,7 @@
         <v>0.41</v>
       </c>
       <c r="I25" s="3">
-        <f>H25*B25</f>
+        <f t="shared" si="0"/>
         <v>1.64</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -1752,7 +1752,7 @@
         <v>0.59</v>
       </c>
       <c r="I26" s="3">
-        <f>H26*B26</f>
+        <f t="shared" si="0"/>
         <v>4.72</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -1785,7 +1785,7 @@
         <v>3.78</v>
       </c>
       <c r="I27" s="3">
-        <f>H27*B27</f>
+        <f t="shared" si="0"/>
         <v>3.78</v>
       </c>
       <c r="J27" s="10" t="s">
@@ -1818,7 +1818,7 @@
         <v>3.02</v>
       </c>
       <c r="I28" s="3">
-        <f>H28*B28</f>
+        <f t="shared" si="0"/>
         <v>3.02</v>
       </c>
       <c r="J28" s="10" t="s">
@@ -1851,7 +1851,7 @@
         <v>3.72</v>
       </c>
       <c r="I29" s="3">
-        <f>H29*B29</f>
+        <f t="shared" si="0"/>
         <v>3.72</v>
       </c>
       <c r="J29" s="10" t="s">
@@ -1884,7 +1884,7 @@
         <v>7.07</v>
       </c>
       <c r="I30" s="3">
-        <f>H30*B30</f>
+        <f t="shared" si="0"/>
         <v>7.07</v>
       </c>
       <c r="J30" s="10" t="s">
@@ -1917,7 +1917,7 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="I31" s="3">
-        <f>H31*B31</f>
+        <f t="shared" si="0"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="J31" s="10" t="s">
@@ -1950,7 +1950,7 @@
         <v>14.95</v>
       </c>
       <c r="I32" s="7">
-        <f>H32*B32</f>
+        <f t="shared" si="0"/>
         <v>14.95</v>
       </c>
       <c r="J32" s="6" t="s">
@@ -2134,9 +2134,10 @@
     <hyperlink ref="J30" r:id="rId23"/>
     <hyperlink ref="J19" r:id="rId24"/>
     <hyperlink ref="J20" r:id="rId25"/>
+    <hyperlink ref="J17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -2215,7 +2216,7 @@
         <v>0.48</v>
       </c>
       <c r="I2" s="3">
-        <f>H2*B2</f>
+        <f t="shared" ref="I2:I8" si="0">H2*B2</f>
         <v>0.48</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -2248,7 +2249,7 @@
         <v>0.51</v>
       </c>
       <c r="I3" s="3">
-        <f>H3*B3</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -2281,7 +2282,7 @@
         <v>0.42</v>
       </c>
       <c r="I4" s="3">
-        <f>H4*B4</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="J4" s="25" t="s">
@@ -2314,7 +2315,7 @@
         <v>2.95</v>
       </c>
       <c r="I5" s="3">
-        <f>H5*B5</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -2347,7 +2348,7 @@
         <v>5.2</v>
       </c>
       <c r="I6" s="3">
-        <f>H6*B6</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="J6" s="25" t="s">
@@ -2380,7 +2381,7 @@
         <v>1.4</v>
       </c>
       <c r="I7" s="3">
-        <f>H7*B7</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="J7" s="25" t="s">
@@ -2413,7 +2414,7 @@
         <v>23.8</v>
       </c>
       <c r="I8" s="3">
-        <f>H8*B8</f>
+        <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
       <c r="J8" s="25" t="s">
